--- a/biology/Médecine/Carcinome_à_cellules_claires_du_rein/Carcinome_à_cellules_claires_du_rein.xlsx
+++ b/biology/Médecine/Carcinome_à_cellules_claires_du_rein/Carcinome_à_cellules_claires_du_rein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carcinome_%C3%A0_cellules_claires_du_rein</t>
+          <t>Carcinome_à_cellules_claires_du_rein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le carcinome à cellules claires du rein est un type de carcinome à cellules rénales du rein. 
 Il peut être lié à des anomalies de la région chromosomique 3p et du gène VHL de la maladie de von Hippel-Lindau.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carcinome_%C3%A0_cellules_claires_du_rein</t>
+          <t>Carcinome_à_cellules_claires_du_rein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a d'abord été décrit par le médecin allemand Paul Grawitz (de)(1850-1932) en 1883, qui l'appelle « hypernéphrome » en lui attribuant une origine surrénalienne[1]. Au cours du XXe siècle, cette forme, la plus fréquente des cancers du rein, est souvent appelée « tumeur de Grawitz ». Son origine rénale est démontrée en 1960, et au XXIe siècle, après l'avènement des techniques de biologie moléculaire et de cytogénétique, les appellations « hypernéphrome » et « tumeurs de Grawitz » tombent en désuétude[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a d'abord été décrit par le médecin allemand Paul Grawitz (de)(1850-1932) en 1883, qui l'appelle « hypernéphrome » en lui attribuant une origine surrénalienne. Au cours du XXe siècle, cette forme, la plus fréquente des cancers du rein, est souvent appelée « tumeur de Grawitz ». Son origine rénale est démontrée en 1960, et au XXIe siècle, après l'avènement des techniques de biologie moléculaire et de cytogénétique, les appellations « hypernéphrome » et « tumeurs de Grawitz » tombent en désuétude,. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carcinome_%C3%A0_cellules_claires_du_rein</t>
+          <t>Carcinome_à_cellules_claires_du_rein</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Anatomie pathologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Carcinome rénal à cellules claires de 8 cm de diamètre, du pôle inférieur d'un rein, montrant une prolongation au-delà de la surface corticale, mais sans infiltration du tissu adipeux périrénal.
